--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H2">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I2">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J2">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>379.2356259115555</v>
+        <v>373.2372444305572</v>
       </c>
       <c r="R2">
-        <v>3413.120633204</v>
+        <v>3359.135199875015</v>
       </c>
       <c r="S2">
-        <v>0.2408549764789398</v>
+        <v>0.2611340751604399</v>
       </c>
       <c r="T2">
-        <v>0.2408549764789398</v>
+        <v>0.2611340751604398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H3">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I3">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J3">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>158.0184601258667</v>
+        <v>168.2019969644373</v>
       </c>
       <c r="R3">
-        <v>1422.1661411328</v>
+        <v>1513.817972679936</v>
       </c>
       <c r="S3">
-        <v>0.1003585367418251</v>
+        <v>0.1176819129732366</v>
       </c>
       <c r="T3">
-        <v>0.1003585367418252</v>
+        <v>0.1176819129732366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H4">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I4">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J4">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>13.15434023937778</v>
+        <v>34.71387869765567</v>
       </c>
       <c r="R4">
-        <v>118.3890621544</v>
+        <v>312.424908278901</v>
       </c>
       <c r="S4">
-        <v>0.008354405790162254</v>
+        <v>0.02428743847033357</v>
       </c>
       <c r="T4">
-        <v>0.008354405790162254</v>
+        <v>0.02428743847033357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H5">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I5">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J5">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>15.24254688311111</v>
+        <v>22.52927199737745</v>
       </c>
       <c r="R5">
-        <v>137.182921948</v>
+        <v>202.763447976397</v>
       </c>
       <c r="S5">
-        <v>0.009680639212590913</v>
+        <v>0.01576252288554164</v>
       </c>
       <c r="T5">
-        <v>0.009680639212590915</v>
+        <v>0.01576252288554164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H6">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I6">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J6">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>12.3271775568</v>
+        <v>17.06673030754511</v>
       </c>
       <c r="R6">
-        <v>110.9445980112</v>
+        <v>153.600572767906</v>
       </c>
       <c r="S6">
-        <v>0.007829069469299323</v>
+        <v>0.01194067553915466</v>
       </c>
       <c r="T6">
-        <v>0.007829069469299323</v>
+        <v>0.01194067553915466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>10.864809</v>
       </c>
       <c r="I7">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J7">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>23.939441682535</v>
+        <v>22.134338171255</v>
       </c>
       <c r="R7">
-        <v>215.454975142815</v>
+        <v>199.209043541295</v>
       </c>
       <c r="S7">
-        <v>0.01520409283675959</v>
+        <v>0.01548620887622726</v>
       </c>
       <c r="T7">
-        <v>0.01520409283675959</v>
+        <v>0.01548620887622725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.864809</v>
       </c>
       <c r="I8">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J8">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>9.974995629312</v>
@@ -948,10 +948,10 @@
         <v>89.774960663808</v>
       </c>
       <c r="S8">
-        <v>0.00633518365238128</v>
+        <v>0.006978969267560485</v>
       </c>
       <c r="T8">
-        <v>0.006335183652381281</v>
+        <v>0.006978969267560484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>10.864809</v>
       </c>
       <c r="I9">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J9">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>0.8303744150510001</v>
+        <v>2.058660387717</v>
       </c>
       <c r="R9">
-        <v>7.473369735459</v>
+        <v>18.527943489453</v>
       </c>
       <c r="S9">
-        <v>0.0005273761127401716</v>
+        <v>0.001440334222904522</v>
       </c>
       <c r="T9">
-        <v>0.0005273761127401716</v>
+        <v>0.001440334222904521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>10.864809</v>
       </c>
       <c r="I10">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J10">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>0.962193521045</v>
+        <v>1.336068499549</v>
       </c>
       <c r="R10">
-        <v>8.659741689405001</v>
+        <v>12.024616495941</v>
       </c>
       <c r="S10">
-        <v>0.0006110952717652369</v>
+        <v>0.0009347754469493685</v>
       </c>
       <c r="T10">
-        <v>0.000611095271765237</v>
+        <v>0.0009347754469493684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>10.864809</v>
       </c>
       <c r="I11">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J11">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>0.7781593501980001</v>
+        <v>1.012119732802</v>
       </c>
       <c r="R11">
-        <v>7.003434151782001</v>
+        <v>9.109077595218</v>
       </c>
       <c r="S11">
-        <v>0.0004942139904137511</v>
+        <v>0.000708125875219444</v>
       </c>
       <c r="T11">
-        <v>0.0004942139904137511</v>
+        <v>0.0007081258752194439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H12">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I12">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J12">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>344.1869003861356</v>
+        <v>225.17684348693</v>
       </c>
       <c r="R12">
-        <v>3097.68210347522</v>
+        <v>2026.59159138237</v>
       </c>
       <c r="S12">
-        <v>0.2185953062758809</v>
+        <v>0.1575441562945278</v>
       </c>
       <c r="T12">
-        <v>0.2185953062758809</v>
+        <v>0.1575441562945278</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H13">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I13">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J13">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>143.4144903021227</v>
+        <v>101.477532882432</v>
       </c>
       <c r="R13">
-        <v>1290.730412719104</v>
+        <v>913.297795941888</v>
       </c>
       <c r="S13">
-        <v>0.09108346191217996</v>
+        <v>0.07099838532793407</v>
       </c>
       <c r="T13">
-        <v>0.09108346191217997</v>
+        <v>0.07099838532793407</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H14">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I14">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J14">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>11.93862412776578</v>
+        <v>20.943144734262</v>
       </c>
       <c r="R14">
-        <v>107.447617149892</v>
+        <v>188.488302608358</v>
       </c>
       <c r="S14">
-        <v>0.007582296696340818</v>
+        <v>0.01465279473777241</v>
       </c>
       <c r="T14">
-        <v>0.007582296696340818</v>
+        <v>0.01465279473777241</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H15">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I15">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J15">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>13.83383998557111</v>
+        <v>13.592079649414</v>
       </c>
       <c r="R15">
-        <v>124.50455987014</v>
+        <v>122.328716844726</v>
       </c>
       <c r="S15">
-        <v>0.008785960433778488</v>
+        <v>0.009509648894155681</v>
       </c>
       <c r="T15">
-        <v>0.008785960433778489</v>
+        <v>0.009509648894155681</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H16">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I16">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J16">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>11.187907316424</v>
+        <v>10.296487064572</v>
       </c>
       <c r="R16">
-        <v>100.691165847816</v>
+        <v>92.66838358114801</v>
       </c>
       <c r="S16">
-        <v>0.007105511638229644</v>
+        <v>0.007203899576288672</v>
       </c>
       <c r="T16">
-        <v>0.007105511638229644</v>
+        <v>0.007203899576288671</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H17">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I17">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J17">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>9.097420982315555</v>
+        <v>12.95448716792166</v>
       </c>
       <c r="R17">
-        <v>81.87678884084001</v>
+        <v>116.590384511295</v>
       </c>
       <c r="S17">
-        <v>0.005777830369833566</v>
+        <v>0.00906355964269908</v>
       </c>
       <c r="T17">
-        <v>0.005777830369833565</v>
+        <v>0.009063559642699079</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H18">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I18">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J18">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>3.790678819498666</v>
+        <v>5.838031021311999</v>
       </c>
       <c r="R18">
-        <v>34.116109375488</v>
+        <v>52.54227919180799</v>
       </c>
       <c r="S18">
-        <v>0.002407484412138261</v>
+        <v>0.004084557086027652</v>
       </c>
       <c r="T18">
-        <v>0.002407484412138261</v>
+        <v>0.004084557086027652</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H19">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I19">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J19">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>0.3155573019137777</v>
+        <v>1.204865009717</v>
       </c>
       <c r="R19">
-        <v>2.840015717224</v>
+        <v>10.843785087453</v>
       </c>
       <c r="S19">
-        <v>0.0002004124648034149</v>
+        <v>0.0008429794043883583</v>
       </c>
       <c r="T19">
-        <v>0.0002004124648034149</v>
+        <v>0.0008429794043883582</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H20">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I20">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J20">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>0.3656509472311111</v>
+        <v>0.7819561668823333</v>
       </c>
       <c r="R20">
-        <v>3.29085852508</v>
+        <v>7.037605501940999</v>
       </c>
       <c r="S20">
-        <v>0.0002322272599868836</v>
+        <v>0.0005470927767842642</v>
       </c>
       <c r="T20">
-        <v>0.0002322272599868836</v>
+        <v>0.0005470927767842642</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H21">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I21">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J21">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>0.295714632528</v>
+        <v>0.5923597981353332</v>
       </c>
       <c r="R21">
-        <v>2.661431692752</v>
+        <v>5.331238183217999</v>
       </c>
       <c r="S21">
-        <v>0.0001878102583079063</v>
+        <v>0.0004144423697166031</v>
       </c>
       <c r="T21">
-        <v>0.0001878102583079063</v>
+        <v>0.000414442369716603</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H22">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I22">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J22">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>276.6616658267528</v>
+        <v>232.8654820893616</v>
       </c>
       <c r="R22">
-        <v>2489.954992440775</v>
+        <v>2095.789338804254</v>
       </c>
       <c r="S22">
-        <v>0.1757095970484255</v>
+        <v>0.1629234842170455</v>
       </c>
       <c r="T22">
-        <v>0.1757095970484255</v>
+        <v>0.1629234842170454</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H23">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I23">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J23">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>115.2783320520533</v>
+        <v>104.942472103168</v>
       </c>
       <c r="R23">
-        <v>1037.50498846848</v>
+        <v>944.4822489285119</v>
       </c>
       <c r="S23">
-        <v>0.0732140074872715</v>
+        <v>0.07342261740122163</v>
       </c>
       <c r="T23">
-        <v>0.07321400748727151</v>
+        <v>0.07342261740122161</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H24">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I24">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J24">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>9.596412981323891</v>
+        <v>21.658246112213</v>
       </c>
       <c r="R24">
-        <v>86.367716831915</v>
+        <v>194.924215009917</v>
       </c>
       <c r="S24">
-        <v>0.006094743386366355</v>
+        <v>0.01515311280560644</v>
       </c>
       <c r="T24">
-        <v>0.006094743386366355</v>
+        <v>0.01515311280560643</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H25">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I25">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J25">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>11.11981080888056</v>
+        <v>14.05617971699433</v>
       </c>
       <c r="R25">
-        <v>100.078297279925</v>
+        <v>126.505617452949</v>
       </c>
       <c r="S25">
-        <v>0.007062263109868811</v>
+        <v>0.009834354811740055</v>
       </c>
       <c r="T25">
-        <v>0.007062263109868811</v>
+        <v>0.009834354811740054</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H26">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I26">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J26">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>8.992977570630002</v>
+        <v>10.64805948511133</v>
       </c>
       <c r="R26">
-        <v>80.93679813567</v>
+        <v>95.83253536600199</v>
       </c>
       <c r="S26">
-        <v>0.005711497689710388</v>
+        <v>0.007449875936524439</v>
       </c>
       <c r="T26">
-        <v>0.005711497689710387</v>
+        <v>0.007449875936524436</v>
       </c>
     </row>
   </sheetData>
